--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036D88DF-3FF3-4E21-A8BC-73B65FA89F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BF1352-963F-4DDD-930D-72E0263CFD99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +723,7 @@
         <v>78</v>
       </c>
       <c r="B19">
-        <v>4074</v>
+        <v>5067</v>
       </c>
       <c r="C19">
         <v>642</v>
@@ -733,6 +733,23 @@
       </c>
       <c r="E19">
         <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>79</v>
+      </c>
+      <c r="B20">
+        <v>6061</v>
+      </c>
+      <c r="C20">
+        <v>785</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BF1352-963F-4DDD-930D-72E0263CFD99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03C383C-41BB-4F21-A795-F2C161EF5496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,6 +752,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>80</v>
+      </c>
+      <c r="B21">
+        <v>7732</v>
+      </c>
+      <c r="C21">
+        <v>1020</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03C383C-41BB-4F21-A795-F2C161EF5496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EB06D3-8D8A-4857-A33A-E328CD3CF73F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,6 +769,23 @@
         <v>6</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>81</v>
+      </c>
+      <c r="B22">
+        <v>9854</v>
+      </c>
+      <c r="C22">
+        <v>1280</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EB06D3-8D8A-4857-A33A-E328CD3CF73F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C84D2C8-CDF5-4799-8999-B878BAA0F663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,6 +786,40 @@
         <v>12</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>82</v>
+      </c>
+      <c r="B23">
+        <v>11779</v>
+      </c>
+      <c r="C23">
+        <v>1600</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>83</v>
+      </c>
+      <c r="B24">
+        <v>13674</v>
+      </c>
+      <c r="C24">
+        <v>2060</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C84D2C8-CDF5-4799-8999-B878BAA0F663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08C83E8-4908-4FC9-81D8-A8A30423C872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G28" sqref="F28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,6 +820,23 @@
         <v>23</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>84</v>
+      </c>
+      <c r="B25">
+        <v>15474</v>
+      </c>
+      <c r="C25">
+        <v>2362</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08C83E8-4908-4FC9-81D8-A8A30423C872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC67AB29-21FA-4C2A-AC00-12FD1428C4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Suspeitos</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Dia Ano</t>
+  </si>
+  <si>
+    <t>Confirmados_real</t>
   </si>
 </sst>
 </file>
@@ -399,20 +402,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="F28:G28"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -428,8 +432,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>61</v>
       </c>
@@ -445,8 +452,12 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>C2-D2-E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>62</v>
       </c>
@@ -462,8 +473,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F25" si="0">C3-D3-E3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>63</v>
       </c>
@@ -479,8 +494,12 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>64</v>
       </c>
@@ -496,8 +515,12 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>65</v>
       </c>
@@ -513,8 +536,12 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>66</v>
       </c>
@@ -530,8 +557,12 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>67</v>
       </c>
@@ -547,8 +578,12 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>68</v>
       </c>
@@ -564,8 +599,12 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>69</v>
       </c>
@@ -581,8 +620,12 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>70</v>
       </c>
@@ -598,8 +641,12 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>71</v>
       </c>
@@ -615,8 +662,12 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>72</v>
       </c>
@@ -632,8 +683,12 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>73</v>
       </c>
@@ -649,8 +704,12 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>74</v>
       </c>
@@ -666,8 +725,12 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>75</v>
       </c>
@@ -683,8 +746,12 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>76</v>
       </c>
@@ -700,8 +767,12 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>77</v>
       </c>
@@ -717,8 +788,12 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>78</v>
       </c>
@@ -734,8 +809,12 @@
       <c r="E19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>79</v>
       </c>
@@ -751,8 +830,12 @@
       <c r="E20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>80</v>
       </c>
@@ -768,8 +851,12 @@
       <c r="E21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>81</v>
       </c>
@@ -785,8 +872,12 @@
       <c r="E22">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>82</v>
       </c>
@@ -802,8 +893,12 @@
       <c r="E23">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>83</v>
       </c>
@@ -819,8 +914,12 @@
       <c r="E24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>84</v>
       </c>
@@ -835,6 +934,10 @@
       </c>
       <c r="E25">
         <v>30</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>2310</v>
       </c>
     </row>
   </sheetData>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC67AB29-21FA-4C2A-AC00-12FD1428C4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DF0D5E-F535-4569-9F29-E22E3A326946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F25" si="0">C3-D3-E3</f>
+        <f t="shared" ref="F3:F26" si="0">C3-D3-E3</f>
         <v>2</v>
       </c>
     </row>
@@ -938,6 +938,27 @@
       <c r="F25">
         <f t="shared" si="0"/>
         <v>2310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>85</v>
+      </c>
+      <c r="B26">
+        <v>21155</v>
+      </c>
+      <c r="C26">
+        <v>2995</v>
+      </c>
+      <c r="D26">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>43</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>2930</v>
       </c>
     </row>
   </sheetData>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DF0D5E-F535-4569-9F29-E22E3A326946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B95C7D4-6AC9-4517-89A3-04E1A84EBFF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Suspeitos</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Dia Ano</t>
-  </si>
-  <si>
-    <t>Confirmados_real</t>
   </si>
 </sst>
 </file>
@@ -402,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,10 +410,9 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -432,11 +428,8 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>61</v>
       </c>
@@ -452,12 +445,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <f>C2-D2-E2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>62</v>
       </c>
@@ -473,12 +462,8 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F26" si="0">C3-D3-E3</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>63</v>
       </c>
@@ -494,12 +479,8 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>64</v>
       </c>
@@ -515,12 +496,8 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>65</v>
       </c>
@@ -536,12 +513,8 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>66</v>
       </c>
@@ -557,12 +530,8 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>67</v>
       </c>
@@ -578,12 +547,8 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>68</v>
       </c>
@@ -599,12 +564,8 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>69</v>
       </c>
@@ -620,12 +581,8 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>70</v>
       </c>
@@ -641,12 +598,8 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>71</v>
       </c>
@@ -662,12 +615,8 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>72</v>
       </c>
@@ -683,12 +632,8 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>73</v>
       </c>
@@ -704,12 +649,8 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>74</v>
       </c>
@@ -725,12 +666,8 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>75</v>
       </c>
@@ -746,12 +683,8 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>76</v>
       </c>
@@ -767,12 +700,8 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>77</v>
       </c>
@@ -788,12 +717,8 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>78</v>
       </c>
@@ -809,12 +734,8 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>637</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>79</v>
       </c>
@@ -830,12 +751,8 @@
       <c r="E20">
         <v>3</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>80</v>
       </c>
@@ -851,12 +768,8 @@
       <c r="E21">
         <v>6</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>81</v>
       </c>
@@ -872,12 +785,8 @@
       <c r="E22">
         <v>12</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>82</v>
       </c>
@@ -893,12 +802,8 @@
       <c r="E23">
         <v>14</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>83</v>
       </c>
@@ -914,12 +819,8 @@
       <c r="E24">
         <v>23</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>84</v>
       </c>
@@ -935,12 +836,8 @@
       <c r="E25">
         <v>30</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>85</v>
       </c>
@@ -956,9 +853,22 @@
       <c r="E26">
         <v>43</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>2930</v>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>86</v>
+      </c>
+      <c r="B27">
+        <v>22257</v>
+      </c>
+      <c r="C27">
+        <v>3544</v>
+      </c>
+      <c r="D27">
+        <v>43</v>
+      </c>
+      <c r="E27">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B95C7D4-6AC9-4517-89A3-04E1A84EBFF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17F1F32-FB17-45D8-AFE8-22674EDBA0D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,6 +871,23 @@
         <v>60</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>87</v>
+      </c>
+      <c r="B28">
+        <v>25431</v>
+      </c>
+      <c r="C28">
+        <v>4268</v>
+      </c>
+      <c r="D28">
+        <v>43</v>
+      </c>
+      <c r="E28">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17F1F32-FB17-45D8-AFE8-22674EDBA0D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50A5BED-66F9-4608-92AF-22A07B0AC194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,6 +888,23 @@
         <v>76</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>88</v>
+      </c>
+      <c r="B29">
+        <v>32754</v>
+      </c>
+      <c r="C29">
+        <v>5170</v>
+      </c>
+      <c r="D29">
+        <v>43</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50A5BED-66F9-4608-92AF-22A07B0AC194}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCAC77B-A5F8-4BAC-801E-191698640316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,6 +905,23 @@
         <v>100</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>89</v>
+      </c>
+      <c r="B30">
+        <v>38042</v>
+      </c>
+      <c r="C30">
+        <v>5962</v>
+      </c>
+      <c r="D30">
+        <v>43</v>
+      </c>
+      <c r="E30">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCAC77B-A5F8-4BAC-801E-191698640316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444AA7A3-1709-488E-A37C-475C9E675F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,6 +922,23 @@
         <v>119</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>90</v>
+      </c>
+      <c r="B31">
+        <v>44206</v>
+      </c>
+      <c r="C31">
+        <v>6408</v>
+      </c>
+      <c r="D31">
+        <v>43</v>
+      </c>
+      <c r="E31">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444AA7A3-1709-488E-A37C-475C9E675F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1523555E-D932-4046-97E4-6466736B8CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,6 +939,23 @@
         <v>140</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>91</v>
+      </c>
+      <c r="B32">
+        <v>52086</v>
+      </c>
+      <c r="C32">
+        <v>7443</v>
+      </c>
+      <c r="D32">
+        <v>43</v>
+      </c>
+      <c r="E32">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1523555E-D932-4046-97E4-6466736B8CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3115BF5F-9394-4971-8281-8156FCD09322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,6 +956,23 @@
         <v>160</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>92</v>
+      </c>
+      <c r="B33">
+        <v>59457</v>
+      </c>
+      <c r="C33">
+        <v>8251</v>
+      </c>
+      <c r="D33">
+        <v>43</v>
+      </c>
+      <c r="E33">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3115BF5F-9394-4971-8281-8156FCD09322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0864DD8C-86E8-4290-9662-B948976F4A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,6 +973,40 @@
         <v>187</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>93</v>
+      </c>
+      <c r="B34">
+        <v>66895</v>
+      </c>
+      <c r="C34">
+        <v>9034</v>
+      </c>
+      <c r="D34">
+        <v>68</v>
+      </c>
+      <c r="E34">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>94</v>
+      </c>
+      <c r="B35">
+        <v>74377</v>
+      </c>
+      <c r="C35">
+        <v>9886</v>
+      </c>
+      <c r="D35">
+        <v>68</v>
+      </c>
+      <c r="E35">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0864DD8C-86E8-4290-9662-B948976F4A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79149887-421A-47C9-B395-F81DD2AE8657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,6 +1007,23 @@
         <v>246</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>95</v>
+      </c>
+      <c r="B36">
+        <v>81087</v>
+      </c>
+      <c r="C36">
+        <v>10524</v>
+      </c>
+      <c r="D36">
+        <v>75</v>
+      </c>
+      <c r="E36">
+        <v>266</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79149887-421A-47C9-B395-F81DD2AE8657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348DFBFD-7D16-4953-96C8-58D7E8362633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,6 +1024,23 @@
         <v>266</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>96</v>
+      </c>
+      <c r="B37">
+        <v>86370</v>
+      </c>
+      <c r="C37">
+        <v>11278</v>
+      </c>
+      <c r="D37">
+        <v>75</v>
+      </c>
+      <c r="E37">
+        <v>295</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348DFBFD-7D16-4953-96C8-58D7E8362633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5271EC5-D9BA-4BFE-8180-31D42A5EE733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,6 +1041,23 @@
         <v>295</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>97</v>
+      </c>
+      <c r="B38">
+        <v>91794</v>
+      </c>
+      <c r="C38">
+        <v>11730</v>
+      </c>
+      <c r="D38">
+        <v>140</v>
+      </c>
+      <c r="E38">
+        <v>311</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5271EC5-D9BA-4BFE-8180-31D42A5EE733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9E5E66-C51D-49D8-8E9C-A1E940AF4CDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,6 +1058,23 @@
         <v>311</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>98</v>
+      </c>
+      <c r="B39">
+        <v>99730</v>
+      </c>
+      <c r="C39">
+        <v>12442</v>
+      </c>
+      <c r="D39">
+        <v>184</v>
+      </c>
+      <c r="E39">
+        <v>345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9E5E66-C51D-49D8-8E9C-A1E940AF4CDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70491D93-C647-4800-9043-9DE5FBDBEBC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,6 +1075,23 @@
         <v>345</v>
       </c>
     </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>99</v>
+      </c>
+      <c r="B40">
+        <v>104886</v>
+      </c>
+      <c r="C40">
+        <v>13141</v>
+      </c>
+      <c r="D40">
+        <v>196</v>
+      </c>
+      <c r="E40">
+        <v>380</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70491D93-C647-4800-9043-9DE5FBDBEBC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03FF7F7-C4E3-4753-80BF-70AA81E6C1B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,6 +1092,23 @@
         <v>380</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="B41">
+        <v>115158</v>
+      </c>
+      <c r="C41">
+        <v>13956</v>
+      </c>
+      <c r="D41">
+        <v>205</v>
+      </c>
+      <c r="E41">
+        <v>409</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03FF7F7-C4E3-4753-80BF-70AA81E6C1B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB5646-51A1-46C7-8765-E26805864DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,6 +1109,23 @@
         <v>409</v>
       </c>
     </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>101</v>
+      </c>
+      <c r="B42">
+        <v>123564</v>
+      </c>
+      <c r="C42">
+        <v>15472</v>
+      </c>
+      <c r="D42">
+        <v>233</v>
+      </c>
+      <c r="E42">
+        <v>435</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AB5646-51A1-46C7-8765-E26805864DB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6DF563-4D96-4459-B8CC-DEE873C53B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,6 +1126,23 @@
         <v>435</v>
       </c>
     </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>102</v>
+      </c>
+      <c r="B43">
+        <v>130300</v>
+      </c>
+      <c r="C43">
+        <v>15987</v>
+      </c>
+      <c r="D43">
+        <v>266</v>
+      </c>
+      <c r="E43">
+        <v>470</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6DF563-4D96-4459-B8CC-DEE873C53B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EB82F1-4A18-4CC2-8AE3-DC340127F633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,6 +1143,23 @@
         <v>470</v>
       </c>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>103</v>
+      </c>
+      <c r="B44">
+        <v>136243</v>
+      </c>
+      <c r="C44">
+        <v>16585</v>
+      </c>
+      <c r="D44">
+        <v>277</v>
+      </c>
+      <c r="E44">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EB82F1-4A18-4CC2-8AE3-DC340127F633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2F0AFC-4C3F-4E17-B24F-A251FC39AA2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,6 +1160,23 @@
         <v>504</v>
       </c>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>104</v>
+      </c>
+      <c r="B45">
+        <v>142514</v>
+      </c>
+      <c r="C45">
+        <v>17448</v>
+      </c>
+      <c r="D45">
+        <v>347</v>
+      </c>
+      <c r="E45">
+        <v>567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2F0AFC-4C3F-4E17-B24F-A251FC39AA2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9336EE8B-A513-4759-A7F8-8EEA98715645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,6 +1177,23 @@
         <v>567</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>105</v>
+      </c>
+      <c r="B46">
+        <v>150804</v>
+      </c>
+      <c r="C46">
+        <v>18091</v>
+      </c>
+      <c r="D46">
+        <v>383</v>
+      </c>
+      <c r="E46">
+        <v>599</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9336EE8B-A513-4759-A7F8-8EEA98715645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608BA255-E90C-4CF0-89A7-63C95AE13D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,6 +1194,57 @@
         <v>599</v>
       </c>
     </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>106</v>
+      </c>
+      <c r="B47">
+        <v>154727</v>
+      </c>
+      <c r="C47">
+        <v>18841</v>
+      </c>
+      <c r="D47">
+        <v>493</v>
+      </c>
+      <c r="E47">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>107</v>
+      </c>
+      <c r="B48">
+        <v>158940</v>
+      </c>
+      <c r="C48">
+        <v>19022</v>
+      </c>
+      <c r="D48">
+        <v>519</v>
+      </c>
+      <c r="E48">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>108</v>
+      </c>
+      <c r="B49">
+        <v>162711</v>
+      </c>
+      <c r="C49">
+        <v>19685</v>
+      </c>
+      <c r="D49">
+        <v>610</v>
+      </c>
+      <c r="E49">
+        <v>687</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608BA255-E90C-4CF0-89A7-63C95AE13D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14B2EC9-C6E2-4F8C-B8BB-917A21C9433D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
@@ -1245,6 +1245,23 @@
         <v>687</v>
       </c>
     </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>109</v>
+      </c>
+      <c r="B50">
+        <v>187604</v>
+      </c>
+      <c r="C50">
+        <v>20206</v>
+      </c>
+      <c r="D50">
+        <v>610</v>
+      </c>
+      <c r="E50">
+        <v>714</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14B2EC9-C6E2-4F8C-B8BB-917A21C9433D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF7E114-E440-4667-A5AB-05A1F8E0EB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,6 +1262,142 @@
         <v>714</v>
       </c>
     </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>110</v>
+      </c>
+      <c r="B51">
+        <v>198353</v>
+      </c>
+      <c r="C51">
+        <v>20863</v>
+      </c>
+      <c r="D51">
+        <v>610</v>
+      </c>
+      <c r="E51">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>111</v>
+      </c>
+      <c r="B52">
+        <v>202769</v>
+      </c>
+      <c r="C52">
+        <v>21379</v>
+      </c>
+      <c r="D52">
+        <v>917</v>
+      </c>
+      <c r="E52">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>112</v>
+      </c>
+      <c r="B53">
+        <v>210302</v>
+      </c>
+      <c r="C53">
+        <v>21982</v>
+      </c>
+      <c r="D53">
+        <v>1143</v>
+      </c>
+      <c r="E53">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>113</v>
+      </c>
+      <c r="B54">
+        <v>219848</v>
+      </c>
+      <c r="C54">
+        <v>22353</v>
+      </c>
+      <c r="D54">
+        <v>1201</v>
+      </c>
+      <c r="E54">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>114</v>
+      </c>
+      <c r="B55">
+        <v>227393</v>
+      </c>
+      <c r="C55">
+        <v>22797</v>
+      </c>
+      <c r="D55">
+        <v>1228</v>
+      </c>
+      <c r="E55">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>115</v>
+      </c>
+      <c r="B56">
+        <v>231737</v>
+      </c>
+      <c r="C56">
+        <v>23392</v>
+      </c>
+      <c r="D56">
+        <v>1277</v>
+      </c>
+      <c r="E56">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>116</v>
+      </c>
+      <c r="B57">
+        <v>236410</v>
+      </c>
+      <c r="C57">
+        <v>23864</v>
+      </c>
+      <c r="D57">
+        <v>1329</v>
+      </c>
+      <c r="E57">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>117</v>
+      </c>
+      <c r="B58">
+        <v>237571</v>
+      </c>
+      <c r="C58">
+        <v>24027</v>
+      </c>
+      <c r="D58">
+        <v>1357</v>
+      </c>
+      <c r="E58">
+        <v>928</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/coronadata.xlsx
+++ b/coronadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PC\Desktop\Corona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF7E114-E440-4667-A5AB-05A1F8E0EB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1004723-3AE6-4678-8A23-0E18210A2DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{2AF399D8-4AE7-496D-BDBE-4F6A7218E433}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39D5D5-803D-4451-AF9A-F01477851509}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,10 +1318,10 @@
         <v>113</v>
       </c>
       <c r="B54">
-        <v>219848</v>
+        <v>227393</v>
       </c>
       <c r="C54">
-        <v>22353</v>
+        <v>22797</v>
       </c>
       <c r="D54">
         <v>1201</v>
@@ -1335,10 +1335,10 @@
         <v>114</v>
       </c>
       <c r="B55">
-        <v>227393</v>
+        <v>231616</v>
       </c>
       <c r="C55">
-        <v>22797</v>
+        <v>23271</v>
       </c>
       <c r="D55">
         <v>1228</v>
@@ -1352,10 +1352,10 @@
         <v>115</v>
       </c>
       <c r="B56">
-        <v>231737</v>
+        <v>236229</v>
       </c>
       <c r="C56">
-        <v>23392</v>
+        <v>23683</v>
       </c>
       <c r="D56">
         <v>1277</v>
@@ -1369,10 +1369,10 @@
         <v>116</v>
       </c>
       <c r="B57">
-        <v>236410</v>
+        <v>237227</v>
       </c>
       <c r="C57">
-        <v>23864</v>
+        <v>23846</v>
       </c>
       <c r="D57">
         <v>1329</v>
@@ -1386,16 +1386,127 @@
         <v>117</v>
       </c>
       <c r="B58">
-        <v>237571</v>
+        <v>238884</v>
       </c>
       <c r="C58">
-        <v>24027</v>
+        <v>24141</v>
       </c>
       <c r="D58">
         <v>1357</v>
       </c>
       <c r="E58">
         <v>928</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>118</v>
+      </c>
+      <c r="B59">
+        <v>243474</v>
+      </c>
+      <c r="C59">
+        <v>24324</v>
+      </c>
+      <c r="D59">
+        <v>1389</v>
+      </c>
+      <c r="E59">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>119</v>
+      </c>
+      <c r="B60">
+        <v>247343</v>
+      </c>
+      <c r="C60">
+        <v>24692</v>
+      </c>
+      <c r="D60">
+        <v>1470</v>
+      </c>
+      <c r="E60">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>120</v>
+      </c>
+      <c r="B61">
+        <v>250905</v>
+      </c>
+      <c r="C61">
+        <v>24987</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>121</v>
+      </c>
+      <c r="B62">
+        <v>252728</v>
+      </c>
+      <c r="C62">
+        <v>25190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>122</v>
+      </c>
+      <c r="B63">
+        <v>252728</v>
+      </c>
+      <c r="C63">
+        <v>25190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>123</v>
+      </c>
+      <c r="B64">
+        <v>252889</v>
+      </c>
+      <c r="C64">
+        <v>25282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>124</v>
+      </c>
+      <c r="B65">
+        <v>254510</v>
+      </c>
+      <c r="C65">
+        <v>25524</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>125</v>
+      </c>
+      <c r="B66">
+        <v>258488</v>
+      </c>
+      <c r="C66">
+        <v>25702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>126</v>
+      </c>
+      <c r="B67">
+        <v>262841</v>
+      </c>
+      <c r="C67">
+        <v>26182</v>
       </c>
     </row>
   </sheetData>
